--- a/NSGA-II_results_Ur/Pareto_results.xlsx
+++ b/NSGA-II_results_Ur/Pareto_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results_Ur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results_Ur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BD7760-C67B-4EC5-A371-7D946449C504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80E7B8E-6108-446F-9F3E-38A64304B603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="2880" windowWidth="28800" windowHeight="15345" xr2:uid="{544C1FF3-CEBA-4BF9-B1D6-A81992E827BC}"/>
+    <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{544C1FF3-CEBA-4BF9-B1D6-A81992E827BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -394,556 +392,684 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D396981C-F3C9-434D-B3C4-04AE072DC405}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B68"/>
+      <selection sqref="A1:B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>82524.055407603169</v>
+        <v>61677.184122822742</v>
       </c>
       <c r="B1">
-        <v>42080.012379851651</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42152.526107061633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>82350.314301529099</v>
+        <v>57721.482834457667</v>
       </c>
       <c r="B2">
-        <v>42074.355343713964</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42069.010527315098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>92024.54159204234</v>
+        <v>59429.3553835926</v>
       </c>
       <c r="B3">
-        <v>42262.863591993315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42109.734533007155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>80942.852388537052</v>
+        <v>57734.944218156081</v>
       </c>
       <c r="B4">
-        <v>42059.072037555394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42073.633378203049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>81915.538284537048</v>
+        <v>57417.218977600518</v>
       </c>
       <c r="B5">
-        <v>42063.140428532279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42067.067678125677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>81841.140463394171</v>
+        <v>57863.670455060841</v>
       </c>
       <c r="B6">
-        <v>42062.412421457549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42080.009788113821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>81048.655516537052</v>
+        <v>57868.264299949718</v>
       </c>
       <c r="B7">
-        <v>42061.228640088273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42081.133881150585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>81922.103496537035</v>
+        <v>57851.788672148141</v>
       </c>
       <c r="B8">
-        <v>42071.207851364241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42076.081493278805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>93121.080846738085</v>
+        <v>57922.67522720369</v>
       </c>
       <c r="B9">
-        <v>42347.962236052677</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42082.605461518462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>93359.389280738091</v>
+        <v>58040.950122092603</v>
       </c>
       <c r="B10">
-        <v>42354.346145653064</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42084.37322555633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>93372.948887404767</v>
+        <v>57733.539428468248</v>
       </c>
       <c r="B11">
-        <v>42358.82340991986</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42070.276369388943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>92610.122589404767</v>
+        <v>57062.090035134919</v>
       </c>
       <c r="B12">
-        <v>42312.343126514992</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42065.826186553211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>92816.633830071427</v>
+        <v>56413.881099261904</v>
       </c>
       <c r="B13">
-        <v>42336.967528882116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42059.242309576635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>92795.187938071438</v>
+        <v>57769.037524656072</v>
       </c>
       <c r="B14">
-        <v>42327.720292762759</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42075.449651457544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>92926.789950960316</v>
+        <v>59275.342317891525</v>
       </c>
       <c r="B15">
-        <v>42337.406859915565</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42107.37442139574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>86165.764345534393</v>
+        <v>58827.233445447084</v>
       </c>
       <c r="B16">
-        <v>42102.507655869864</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42085.047502225498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>86429.400557439149</v>
+        <v>58977.094224113753</v>
       </c>
       <c r="B17">
-        <v>42102.956629128865</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42090.028028831985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>86489.202395661385</v>
+        <v>58546.956225447087</v>
       </c>
       <c r="B18">
-        <v>42106.717617782255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42085.003969326019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>86081.761286105815</v>
+        <v>58871.21402544708</v>
       </c>
       <c r="B19">
-        <v>42095.820638316414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42089.327702069495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>86979.024695439162</v>
+        <v>59152.036095161369</v>
       </c>
       <c r="B20">
-        <v>42111.926144780118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42090.577620164644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>87321.863783439185</v>
+        <v>59218.960052494702</v>
       </c>
       <c r="B21">
-        <v>42116.136106692509</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42100.264187317451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>87542.365771439174</v>
+        <v>59158.601307161371</v>
       </c>
       <c r="B22">
-        <v>42121.057362135987</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42098.645042996606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>86929.214135439164</v>
+        <v>61902.940646822753</v>
       </c>
       <c r="B23">
-        <v>42109.322149767053</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42156.559379322476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>86995.688755439158</v>
+        <v>61372.146406695771</v>
       </c>
       <c r="B24">
-        <v>42115.681065663455</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42136.561123800391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>86505.69940743917</v>
+        <v>61591.444423880966</v>
       </c>
       <c r="B25">
-        <v>42106.975909261353</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42139.571562410041</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>86779.744028105808</v>
+        <v>61643.822203880947</v>
       </c>
       <c r="B26">
-        <v>42107.731156900845</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42141.045926179584</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>84559.789011404762</v>
+        <v>64718.500618809514</v>
       </c>
       <c r="B27">
-        <v>42086.028140577997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42283.44722857255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>84639.673735256612</v>
+        <v>64788.91114736507</v>
       </c>
       <c r="B28">
-        <v>42086.933788341208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42291.355960257613</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>84213.172123256634</v>
+        <v>64784.773015365077</v>
       </c>
       <c r="B29">
-        <v>42080.03661986682</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42290.917035098064</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>84733.339210388891</v>
+        <v>64849.539003365084</v>
       </c>
       <c r="B30">
-        <v>42091.72148348375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42295.838290541542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>89607.500063658721</v>
+        <v>64772.378659365073</v>
       </c>
       <c r="B31">
-        <v>42162.286683554914</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42289.229123415811</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>89857.130774769816</v>
+        <v>64632.20670480952</v>
       </c>
       <c r="B32">
-        <v>42169.840631768253</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42275.875878183397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>89737.531834492052</v>
+        <v>64950.510030817459</v>
       </c>
       <c r="B33">
-        <v>42167.63654853023</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42302.414371081541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>89879.152925140181</v>
+        <v>60870.447459661373</v>
       </c>
       <c r="B34">
-        <v>42172.337771109174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42129.344001134697</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>90086.346694621679</v>
+        <v>60866.309327661373</v>
       </c>
       <c r="B35">
-        <v>42174.56207698553</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42128.905075975148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>90171.064725510572</v>
+        <v>60338.068908994697</v>
       </c>
       <c r="B36">
-        <v>42186.579379574468</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42123.383163025617</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>90493.356533510567</v>
+        <v>61273.535396846557</v>
       </c>
       <c r="B37">
-        <v>42195.341348626491</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42136.256020117013</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>90442.674299732796</v>
+        <v>61253.406055322739</v>
       </c>
       <c r="B38">
-        <v>42189.763720336356</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42131.504727466185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>89588.885430214257</v>
+        <v>60712.013826772483</v>
       </c>
       <c r="B39">
-        <v>42158.2817475989</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42125.9659500532</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>87807.680938378297</v>
+        <v>60164.283056402106</v>
       </c>
       <c r="B40">
-        <v>42122.300693124758</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42123.162852261405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>87427.949431711633</v>
+        <v>60151.657856402126</v>
       </c>
       <c r="B41">
-        <v>42116.643656987071</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42123.041578011907</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>88215.194911711616</v>
+        <v>66144.295750251316</v>
       </c>
       <c r="B42">
-        <v>42123.738840197744</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42413.888817931096</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>88821.714999539676</v>
+        <v>66304.028339751327</v>
       </c>
       <c r="B43">
-        <v>42136.717886606908</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42418.497387485251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>89388.989936597878</v>
+        <v>66043.119483751332</v>
       </c>
       <c r="B44">
-        <v>42146.902680867941</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42398.085062877653</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>88249.193785306881</v>
+        <v>65518.520497328042</v>
       </c>
       <c r="B45">
-        <v>42124.958300758823</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42349.100624981118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>88636.693526973526</v>
+        <v>65480.816683994708</v>
       </c>
       <c r="B46">
-        <v>42127.293852981995</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42345.509054482362</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>89127.968264269832</v>
+        <v>65546.769254661369</v>
       </c>
       <c r="B47">
-        <v>42143.561306245763</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42356.653436522793</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>89070.040961269813</v>
+        <v>65712.864165126957</v>
       </c>
       <c r="B48">
-        <v>42140.527483712503</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42380.898496122827</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>89392.332769269822</v>
+        <v>65646.062169169309</v>
       </c>
       <c r="B49">
-        <v>42149.289452764526</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42370.857175253564</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>89580.200263269828</v>
+        <v>65582.185442502654</v>
       </c>
       <c r="B50">
-        <v>42154.762764763916</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42365.01789948604</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>89568.931357269845</v>
+        <v>65766.902140238089</v>
       </c>
       <c r="B51">
-        <v>42149.853936970198</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42383.361848365646</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>89322.52643189946</v>
+        <v>65745.541360238101</v>
       </c>
       <c r="B52">
-        <v>42146.174673793212</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42382.97136371841</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>90798.202797386228</v>
+        <v>65676.911684640218</v>
       </c>
       <c r="B53">
-        <v>42208.615941487667</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42379.410476380275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>92045.950306063503</v>
+        <v>65808.25136730689</v>
       </c>
       <c r="B54">
-        <v>42268.546145840875</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42391.034769816462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>91963.68174834919</v>
+        <v>65945.699727306885</v>
       </c>
       <c r="B55">
-        <v>42249.221641216282</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42393.310310100278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>91539.054874349211</v>
+        <v>65670.086103899477</v>
       </c>
       <c r="B56">
-        <v>42233.832185655992</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42378.837482292089</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>91638.114514349203</v>
+        <v>64980.184709891539</v>
       </c>
       <c r="B57">
-        <v>42236.84211389994</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42313.030769721139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>91511.744142476178</v>
+        <v>65155.704117058209</v>
       </c>
       <c r="B58">
-        <v>42229.584448674002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42318.925890083447</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>91509.711669904762</v>
+        <v>65176.627544558207</v>
       </c>
       <c r="B59">
-        <v>42224.388322357765</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42324.039410657278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>91143.911757312162</v>
+        <v>65134.165381891537</v>
       </c>
       <c r="B60">
-        <v>42221.614195943577</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42315.391998041596</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>90696.51113864551</v>
+        <v>65327.210954740731</v>
       </c>
       <c r="B61">
-        <v>42207.332673264682</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42337.24471207273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>90672.988056645496</v>
+        <v>65327.101610740741</v>
       </c>
       <c r="B62">
-        <v>42200.76697318731</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42330.042591461563</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>91129.851362571411</v>
+        <v>62212.302103153444</v>
       </c>
       <c r="B63">
-        <v>42209.832198895703</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42168.31095387962</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>92152.616543756609</v>
+        <v>62080.294055746039</v>
       </c>
       <c r="B64">
-        <v>42272.555339551538</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42162.319433168435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>92246.083366201055</v>
+        <v>62194.076055746038</v>
       </c>
       <c r="B65">
-        <v>42280.727499339744</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42163.072250378493</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>92244.241432867711</v>
+        <v>63817.997157248683</v>
       </c>
       <c r="B66">
-        <v>42278.312800920678</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42201.141137142753</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>90580.117538719584</v>
+        <v>63278.329627280429</v>
       </c>
       <c r="B67">
-        <v>42197.46265903813</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42189.601890273269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>81980.694402251334</v>
+        <v>64000.212164677243</v>
       </c>
       <c r="B68">
-        <v>42072.99401568633</v>
+        <v>42204.964053355812</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>64075.055557375665</v>
+      </c>
+      <c r="B69">
+        <v>42209.165395150259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>64227.2089901164</v>
+      </c>
+      <c r="B70">
+        <v>42215.274655607391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>63480.356940931211</v>
+      </c>
+      <c r="B71">
+        <v>42195.945338062178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>64166.462392185189</v>
+      </c>
+      <c r="B72">
+        <v>42210.926236563893</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>63846.819147740745</v>
+      </c>
+      <c r="B73">
+        <v>42201.310853240291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>63073.547625534375</v>
+      </c>
+      <c r="B74">
+        <v>42186.25035988594</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>62491.002893256606</v>
+      </c>
+      <c r="B75">
+        <v>42176.058471860953</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>63055.746685534381</v>
+      </c>
+      <c r="B76">
+        <v>42177.656729780181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>64562.525296346554</v>
+      </c>
+      <c r="B77">
+        <v>42231.796479872988</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>64514.032446949728</v>
+      </c>
+      <c r="B78">
+        <v>42220.998759374648</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>63676.397175597886</v>
+      </c>
+      <c r="B79">
+        <v>42197.055803261115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>59766.574323388886</v>
+      </c>
+      <c r="B80">
+        <v>42112.592125958581</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>59569.885549936502</v>
+      </c>
+      <c r="B81">
+        <v>42110.525041806504</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>59316.48700172222</v>
+      </c>
+      <c r="B82">
+        <v>42109.601742989107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>59983.547952984125</v>
+      </c>
+      <c r="B83">
+        <v>42121.12953053401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>59979.004624984133</v>
+      </c>
+      <c r="B84">
+        <v>42115.933404217772</v>
       </c>
     </row>
   </sheetData>

--- a/NSGA-II_results_Ur/Pareto_results.xlsx
+++ b/NSGA-II_results_Ur/Pareto_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results_Ur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results_Ur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB1112B-EB39-412C-8BB5-141F113A5D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B26DFCB-277C-4B1D-8D25-F306D8454B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="2880" windowWidth="28800" windowHeight="15345" xr2:uid="{544C1FF3-CEBA-4BF9-B1D6-A81992E827BC}"/>
+    <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{544C1FF3-CEBA-4BF9-B1D6-A81992E827BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,684 +404,684 @@
   <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B85"/>
+      <selection sqref="A1:B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>58597.495522592595</v>
+        <v>61677.184122822742</v>
       </c>
       <c r="B1">
-        <v>42111.755690871498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42152.526107061633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>58593.035451481483</v>
+        <v>57721.482834457667</v>
       </c>
       <c r="B2">
-        <v>42110.268875628921</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42069.010527315098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>56387.204166957672</v>
+        <v>59429.3553835926</v>
       </c>
       <c r="B3">
-        <v>42090.030762270566</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42109.734533007155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>56816.689254957673</v>
+        <v>57734.944218156081</v>
       </c>
       <c r="B4">
-        <v>42093.789326179562</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42073.633378203049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>56574.407298957674</v>
+        <v>57417.218977600518</v>
       </c>
       <c r="B5">
-        <v>42091.615398412367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42067.067678125677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>57231.791064013232</v>
+        <v>57863.670455060841</v>
       </c>
       <c r="B6">
-        <v>42096.707413332595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42080.009788113821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>57477.972751727524</v>
+        <v>57868.264299949718</v>
       </c>
       <c r="B7">
-        <v>42103.440840430347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42081.133881150585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>57451.885114013232</v>
+        <v>57851.788672148141</v>
       </c>
       <c r="B8">
-        <v>42102.237531271741</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42076.081493278805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>56238.709553277789</v>
+        <v>57922.67522720369</v>
       </c>
       <c r="B9">
-        <v>42085.883179922763</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42082.605461518462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>56038.723269574075</v>
+        <v>58040.950122092603</v>
       </c>
       <c r="B10">
-        <v>42081.108427145387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42084.37322555633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>56067.876920026443</v>
+        <v>57733.539428468248</v>
       </c>
       <c r="B11">
-        <v>42081.861924223253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42070.276369388943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>55897.674476259272</v>
+        <v>57062.090035134919</v>
       </c>
       <c r="B12">
-        <v>42080.403462188973</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42065.826186553211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>56104.884485740738</v>
+        <v>56413.881099261904</v>
       </c>
       <c r="B13">
-        <v>42082.627768065329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42059.242309576635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>55827.980109740754</v>
+        <v>57769.037524656072</v>
       </c>
       <c r="B14">
-        <v>42080.270842256708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42075.449651457544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>55790.915031962963</v>
+        <v>59275.342317891525</v>
       </c>
       <c r="B15">
-        <v>42074.40292486157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42107.37442139574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>59334.216456092596</v>
+        <v>58827.233445447084</v>
       </c>
       <c r="B16">
-        <v>42147.188526090766</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42085.047502225498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>58903.215969870391</v>
+        <v>58977.094224113753</v>
       </c>
       <c r="B17">
-        <v>42122.835446048775</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42090.028028831985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>59000.373167870384</v>
+        <v>58546.956225447087</v>
       </c>
       <c r="B18">
-        <v>42124.926264859052</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42085.003969326019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>58708.929890703723</v>
+        <v>58871.21402544708</v>
       </c>
       <c r="B19">
-        <v>42119.801623515516</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42089.327702069495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>58551.301016624348</v>
+        <v>59152.036095161369</v>
       </c>
       <c r="B20">
-        <v>42107.653327374108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42090.577620164644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>58655.153915814815</v>
+        <v>59218.960052494702</v>
       </c>
       <c r="B21">
-        <v>42114.57857944096</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42100.264187317451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>58350.889930148143</v>
+        <v>59158.601307161371</v>
       </c>
       <c r="B22">
-        <v>42103.790317524799</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42098.645042996606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>58607.027312814826</v>
+        <v>61902.940646822753</v>
       </c>
       <c r="B23">
-        <v>42113.163798379137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42156.559379322476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>59062.383026058196</v>
+        <v>61372.146406695771</v>
       </c>
       <c r="B24">
-        <v>42139.680957917117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42136.561123800391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>59033.196110883604</v>
+        <v>61591.444423880966</v>
       </c>
       <c r="B25">
-        <v>42129.015975747454</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42139.571562410041</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>59059.55723177248</v>
+        <v>61643.822203880947</v>
       </c>
       <c r="B26">
-        <v>42130.86234844174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42141.045926179584</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>57285.521770619038</v>
+        <v>64718.500618809514</v>
       </c>
       <c r="B27">
-        <v>42100.742187364369</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42283.44722857255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>60668.487093878291</v>
+        <v>64788.91114736507</v>
       </c>
       <c r="B28">
-        <v>42190.90643764627</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42291.355960257613</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>60473.443356878299</v>
+        <v>64784.773015365077</v>
       </c>
       <c r="B29">
-        <v>42185.065985197944</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42290.917035098064</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>60369.1695888783</v>
+        <v>64849.539003365084</v>
       </c>
       <c r="B30">
-        <v>42184.340737568898</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42295.838290541542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>60896.190899026456</v>
+        <v>64772.378659365073</v>
       </c>
       <c r="B31">
-        <v>42200.658613680891</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42289.229123415811</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>60797.096850137561</v>
+        <v>64632.20670480952</v>
       </c>
       <c r="B32">
-        <v>42195.575970835118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42275.875878183397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>60823.457971026452</v>
+        <v>64950.510030817459</v>
       </c>
       <c r="B33">
-        <v>42197.422343529404</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42302.414371081541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>60733.973723026451</v>
+        <v>60870.447459661373</v>
       </c>
       <c r="B34">
-        <v>42194.805236678098</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42129.344001134697</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>60972.572333026459</v>
+        <v>60866.309327661373</v>
       </c>
       <c r="B35">
-        <v>42209.683264363463</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42128.905075975148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>61029.625210137565</v>
+        <v>60338.068908994697</v>
       </c>
       <c r="B36">
-        <v>42214.794075814265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42123.383163025617</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>60940.552868359795</v>
+        <v>61273.535396846557</v>
       </c>
       <c r="B37">
-        <v>42202.645844560386</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42136.256020117013</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>59382.754052296295</v>
+        <v>61253.406055322739</v>
       </c>
       <c r="B38">
-        <v>42151.989220379277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42131.504727466185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>63655.564238484134</v>
+        <v>60712.013826772483</v>
       </c>
       <c r="B39">
-        <v>42425.898257059707</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42125.9659500532</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>63637.774230484123</v>
+        <v>60164.283056402106</v>
       </c>
       <c r="B40">
-        <v>42417.304626953948</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42123.162852261405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>63971.381134380958</v>
+        <v>60151.657856402126</v>
       </c>
       <c r="B41">
-        <v>42447.866466975407</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42123.041578011907</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>63939.966356587298</v>
+        <v>66144.295750251316</v>
       </c>
       <c r="B42">
-        <v>42437.391588924736</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42413.888817931096</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>64015.717367587298</v>
+        <v>66304.028339751327</v>
       </c>
       <c r="B43">
-        <v>42458.85654877434</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42418.497387485251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>64008.413512158731</v>
+        <v>66043.119483751332</v>
       </c>
       <c r="B44">
-        <v>42454.099347617652</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42398.085062877653</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>63987.04895215873</v>
+        <v>65518.520497328042</v>
       </c>
       <c r="B45">
-        <v>42453.708862970416</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42349.100624981118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>63964.286632158728</v>
+        <v>65480.816683994708</v>
       </c>
       <c r="B46">
-        <v>42447.706883448103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42345.509054482362</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>64061.364977571429</v>
+        <v>65546.769254661369</v>
       </c>
       <c r="B47">
-        <v>42472.115440676695</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42356.653436522793</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>64067.961905571428</v>
+        <v>65712.864165126957</v>
       </c>
       <c r="B48">
-        <v>42480.182863508657</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42380.898496122827</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>62579.634036280419</v>
+        <v>65646.062169169309</v>
       </c>
       <c r="B49">
-        <v>42241.873848108466</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42370.857175253564</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>63661.277294806881</v>
+        <v>65582.185442502654</v>
       </c>
       <c r="B50">
-        <v>42431.379234083819</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42365.01789948604</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>63380.648357447091</v>
+        <v>65766.902140238089</v>
       </c>
       <c r="B51">
-        <v>42355.014248145621</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42383.361848365646</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>63529.248670150795</v>
+        <v>65745.541360238101</v>
       </c>
       <c r="B52">
-        <v>42366.346819677441</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42382.97136371841</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>63380.027193002643</v>
+        <v>65676.911684640218</v>
       </c>
       <c r="B53">
-        <v>42333.477468558754</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42379.410476380275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>63575.151238150793</v>
+        <v>65808.25136730689</v>
       </c>
       <c r="B54">
-        <v>42370.58791409558</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42391.034769816462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>63523.518436261904</v>
+        <v>65945.699727306885</v>
       </c>
       <c r="B55">
-        <v>42362.904048397155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42393.310310100278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>63445.464459373019</v>
+        <v>65670.086103899477</v>
       </c>
       <c r="B56">
-        <v>42361.914883202655</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42378.837482292089</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>63172.759071335982</v>
+        <v>64980.184709891539</v>
       </c>
       <c r="B57">
-        <v>42323.66123228256</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42313.030769721139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>63084.504250288352</v>
+        <v>65155.704117058209</v>
       </c>
       <c r="B58">
-        <v>42307.596669701401</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42318.925890083447</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>63061.74193028835</v>
+        <v>65176.627544558207</v>
       </c>
       <c r="B59">
-        <v>42301.594690179089</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42324.039410657278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>63118.748252002639</v>
+        <v>65134.165381891537</v>
       </c>
       <c r="B60">
-        <v>42318.3950601377</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42315.391998041596</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>63610.456800690481</v>
+        <v>65327.210954740731</v>
       </c>
       <c r="B61">
-        <v>42382.615580049533</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42337.24471207273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>63599.001309261912</v>
+        <v>65327.101610740741</v>
       </c>
       <c r="B62">
-        <v>42377.419453733295</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42330.042591461563</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>59997.437119703704</v>
+        <v>62212.302103153444</v>
       </c>
       <c r="B63">
-        <v>42162.888656401257</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42168.31095387962</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>60057.463761037034</v>
+        <v>62080.294055746039</v>
       </c>
       <c r="B64">
-        <v>42163.604040842853</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42162.319433168435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>60088.763481179893</v>
+        <v>62194.076055746038</v>
       </c>
       <c r="B65">
-        <v>42170.180712512956</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42163.072250378493</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>59916.94412662962</v>
+        <v>63817.997157248683</v>
       </c>
       <c r="B66">
-        <v>42158.785887782127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42201.141137142753</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>59599.212462074065</v>
+        <v>63278.329627280429</v>
       </c>
       <c r="B67">
-        <v>42152.220187704756</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42189.601890273269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>59880.598799481479</v>
+        <v>64000.212164677243</v>
       </c>
       <c r="B68">
-        <v>42155.895936535584</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42204.964053355812</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>62772.484488113747</v>
+        <v>64075.055557375665</v>
       </c>
       <c r="B69">
-        <v>42260.819951817415</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42209.165395150259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>61752.784968050262</v>
+        <v>64227.2089901164</v>
       </c>
       <c r="B70">
-        <v>42215.951552761369</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42215.274655607391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>61798.792764050253</v>
+        <v>63480.356940931211</v>
       </c>
       <c r="B71">
-        <v>42220.231082667407</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42195.945338062178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>61933.548391050252</v>
+        <v>64166.462392185189</v>
       </c>
       <c r="B72">
-        <v>42224.495487826302</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42210.926236563893</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>62820.947335113742</v>
+        <v>63846.819147740745</v>
       </c>
       <c r="B73">
-        <v>42263.881862767244</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42201.310853240291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>62155.158052716935</v>
+        <v>63073.547625534375</v>
       </c>
       <c r="B74">
-        <v>42229.959319085137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42186.25035988594</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>62349.766672335965</v>
+        <v>62491.002893256606</v>
       </c>
       <c r="B75">
-        <v>42237.435662376993</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42176.058471860953</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>62258.857298706345</v>
+        <v>63055.746685534381</v>
       </c>
       <c r="B76">
-        <v>42232.28375645214</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42177.656729780181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>62613.58127689152</v>
+        <v>64562.525296346554</v>
       </c>
       <c r="B77">
-        <v>42253.716461338932</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42231.796479872988</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>62755.635862891533</v>
+        <v>64514.032446949728</v>
       </c>
       <c r="B78">
-        <v>42260.546466205495</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42220.998759374648</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>62685.323080113732</v>
+        <v>63676.397175597886</v>
       </c>
       <c r="B79">
-        <v>42258.224826629557</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42197.055803261115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>62872.838256812152</v>
+        <v>59766.574323388886</v>
       </c>
       <c r="B80">
-        <v>42272.141369125282</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42112.592125958581</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>62890.366053367732</v>
+        <v>59569.885549936502</v>
       </c>
       <c r="B81">
-        <v>42278.254055399637</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42110.525041806504</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>62945.829632129629</v>
+        <v>59316.48700172222</v>
       </c>
       <c r="B82">
-        <v>42286.512092665704</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42109.601742989107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>62934.374140701053</v>
+        <v>59983.547952984125</v>
       </c>
       <c r="B83">
-        <v>42281.315966349466</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42121.12953053401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>62146.979936939148</v>
+        <v>59979.004624984133</v>
       </c>
       <c r="B84">
-        <v>42226.897408135308</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42115.933404217772</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>60983.962221846545</v>
       </c>
@@ -1103,9 +1103,9 @@
       <selection sqref="A1:B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>158306.89431447352</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>103566.55191326611</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>158101.50735014019</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>103564.60091604493</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>158053.43367014022</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>103561.1665155018</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>161859.50062512964</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>103721.1034477082</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>161771.83867312962</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>103717.91102436294</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>161689.53414312965</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>103707.12344012034</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>161715.22262512962</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>103717.62361330338</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>162238.46836200796</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>103737.86434095813</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>162256.89247172224</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>103742.55610498915</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>162480.60235172222</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>103744.16607039033</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>159895.44870501853</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>103615.74638322819</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>159872.91408679626</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>103611.31254305331</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>160888.5995100688</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>103675.6919267562</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>160851.48624323547</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>103670.31092164919</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>160135.17838222752</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>103648.36584484931</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>160665.56091635447</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>103661.02699809062</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>161107.38620916402</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>103677.91764270641</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>156248.04332764546</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>103472.53503666485</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>155903.11697364549</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>103456.37350486399</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>156410.41523764544</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>103474.99303128451</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>156143.28709428041</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>103472.48646518229</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>156098.93066628042</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>103469.38391309616</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>156059.11583516933</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>103468.5868620714</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>156717.26982164552</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>103484.87487439516</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>157700.14274639945</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>103530.96040150199</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>157954.08926439946</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>103543.59569886807</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>157836.2069057328</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>103534.90187829926</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>158031.41372217721</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>103559.1246714249</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>157525.65430074866</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>103519.48167380223</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>157525.78777274865</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>103525.45396641687</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>157073.95493410321</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>103489.29028517824</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>156732.37099047357</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>103487.04894928045</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>157278.38324654763</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>103491.77503748571</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>162010.71157268519</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>103728.66654861772</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>162027.51746068517</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>103731.19191863276</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>159112.63168552643</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>103571.52399590147</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>159353.2617381931</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>103583.27947154356</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>149358.18802031482</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>103328.98732291852</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>150256.12727353701</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>103335.5078106016</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>150891.33836154762</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>103357.70308901537</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>149453.47044475927</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>103331.2541626415</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>150436.2911929815</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>103351.7909351362</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>150436.35877698151</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>103356.90675425</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>150348.48687298148</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>103347.94621278615</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>151018.20343395503</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>103362.12138142872</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>155142.0499480741</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>103451.46239590501</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>154535.16511872486</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>103417.88341290575</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>154560.15334729629</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>103431.36099802899</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>154615.30560251058</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>103438.24778491225</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>154662.27248917724</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>103439.92406565275</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>151887.93416386773</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>103367.03102032111</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>151891.5683328677</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>103370.61312740928</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>153670.89064671434</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>103408.51003862807</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>153863.57930638097</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>103410.28755048894</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>153896.40426015874</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>103415.46666024084</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>152564.03316250004</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>103373.91462964802</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>151553.82525507145</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>103365.2552348388</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>147856.45726914285</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>103301.9991448603</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>147887.90603880948</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>103312.42226651678</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>148933.05097026721</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>103326.87292218569</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>148869.46071026722</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>103318.82287409683</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>148844.4618649339</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>103312.62939550182</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>140713.35560603437</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>103235.14001523418</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>141188.3680526799</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>103242.62100574843</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>146638.33413499998</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>103288.88690111261</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>146623.22079900003</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>103279.84512642013</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>146054.67419455558</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>103270.92887835875</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>146106.74656522225</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>103274.01181366158</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>145384.16912179368</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>103261.13757263817</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>144913.25672991003</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>103254.63731375938</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>144573.08432102113</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>103250.45838650553</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>144293.34357035448</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>103247.53415717545</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>144105.25581600529</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>103247.00191416134</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>143587.70882857672</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>103245.71711716412</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>152733.61115155555</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>103396.03700895392</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>153630.48766898413</v>
       </c>
@@ -1727,9 +1727,9 @@
       <selection sqref="A1:B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>78958.724937248669</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>48987.38383066126</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>79270.020978677247</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>48991.046626986783</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>78690.987485391539</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>48981.997115477905</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>78844.844213820121</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>48985.103183501225</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>79342.124633820102</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>48992.323676204447</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>79557.387456677257</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>49003.199667274144</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>79448.346864931227</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>48996.476871374609</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>80061.061844486772</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>49032.130451945814</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>80061.025508486782</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>49019.799573469369</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>79935.117184931209</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>49016.447814084284</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>80111.235547153425</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>49032.315744992622</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>79608.043047820116</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>49015.947360636375</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>79645.443109820102</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>49016.147698950648</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>80167.052579550262</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>49037.080161591839</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>80675.802571407403</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>49044.725353976333</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>80661.581183629634</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>49037.428632572599</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>76810.297213420621</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>48907.227871038842</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>76828.990384753954</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>48915.32639467316</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>77025.623103476202</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>48939.034797518099</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>76292.459898007932</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>48896.585436411071</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>76280.745212007925</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>48889.438458307501</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>76402.82609935716</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>48899.769747777907</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>74092.824350089941</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>48873.998531175181</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>73943.179076375643</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>48871.654343370559</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>74002.243244375655</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>48873.558952660758</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>74172.695280947082</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>48878.15571350445</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>74590.625978428565</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>48878.498798203946</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>76872.161889857161</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>48917.832036875938</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>76964.623592333344</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>48931.17312562561</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>76920.928381666687</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>48927.113247043184</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>84061.286280523811</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>49232.230630000806</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>83953.915782190481</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>49230.174707031096</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>73732.877072743388</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>48866.483513221268</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>73834.791527743379</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>48870.041334966467</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>71408.182284269831</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>48853.395066360477</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>71485.385295486776</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>48853.407067288368</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>72061.820284502639</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>48856.150426898057</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>72151.143766201043</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>48857.082976085847</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>72433.798497756608</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>48857.762313401225</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>72492.86266575662</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>48859.666922691424</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>73082.523844947107</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>48862.242295930293</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>77960.243720060855</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>48939.15684131514</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>72692.973238518505</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>48860.096858865596</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>75792.881449650784</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>48885.128806713896</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>83229.250774285727</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>49166.873590180468</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>83185.246692952394</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>49160.115719829984</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>83659.859129042321</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>49213.465886042635</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>83432.685428190482</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>49180.907895231074</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>83419.8914807619</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>49179.866281734481</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>83435.657408761908</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>49182.246579826227</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>83481.748392761903</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>49189.223974698813</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>82957.18990485715</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>49150.327581053149</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>83078.087512857135</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>49155.669908772885</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>82634.992998190457</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>49141.206174703038</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>83501.294254470908</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>49194.074702456281</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>83191.566255285696</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>49163.982126007679</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>82724.070076730146</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>49146.773654700548</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>82836.444012396823</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>49148.960899718913</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>83556.015552248675</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>49201.331729586695</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>83722.44847653441</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>49220.621630346759</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>83693.479366312182</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>49216.510235402027</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>83414.707299539674</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>49177.453262053583</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>83352.772901761913</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>49172.539727416275</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>70464.153933417969</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>48833.834512490583</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>70489.718941417974</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>48835.162486020112</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>71036.596454600527</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>48842.271177078088</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>71338.307239436486</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>48843.197701218858</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>71366.558697044951</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>48849.918754590275</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>70934.327031243389</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>48839.294297118409</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>82285.333398883595</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>49101.610657964025</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>82132.309522193129</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>49078.12288887881</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>82143.590573748676</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>49082.312975833578</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>82300.65557043122</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>49109.916862672915</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>82534.27542065343</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>49138.821462800835</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>82301.176982875681</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>49110.20737087771</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>82279.26898820902</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>49093.868791431036</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>82445.03475398678</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>49124.53445554978</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>82434.647919708979</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>49114.273478517054</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>82359.435885709012</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>49112.420602274193</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>82375.729217264554</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>49113.691722602423</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>82288.981131042325</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>49108.220764022415</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>82486.451553097868</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>49128.645850494511</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>80699.172639677243</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>49045.548090835153</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>81045.598010177258</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>49066.598390149782</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>80899.026931145519</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>49058.209805996208</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>80831.654677812185</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>49049.611864368177</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>81265.287360240734</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>49069.074408338689</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>81252.493412812168</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>49068.032794842096</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>81050.611710843921</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>49067.836199678095</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>78287.177636671971</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>48954.769913148011</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>78196.285958005305</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>48942.54849766846</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>78634.016801878315</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>48976.554989585398</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>78609.15680721165</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>48960.556529273723</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>78529.096686211662</v>
       </c>
@@ -2495,9 +2495,9 @@
       <selection sqref="A1:B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>97524.698156455022</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>56567.946691020232</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>97535.860586455019</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>56575.376116498905</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>97427.029555566114</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>56559.042480956792</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>97483.043678740753</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>56564.706813388213</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>98656.784035727527</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>56644.532834961974</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>98634.438038060849</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>56643.749327730271</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>98765.002185410049</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>56655.334697693797</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>98511.505497910053</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>56641.915185430677</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>97139.988866447107</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>56543.394343337342</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>97148.889359018518</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>56548.731852073375</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>97161.380284732819</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>56556.768222307852</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>96687.008203410049</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>56543.152753305978</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>96633.03820941005</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>56536.823740124899</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>96682.563442965591</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>56540.666217226579</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>98806.900464838633</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>56717.824420984049</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>98781.316645981497</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>56700.893737907747</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>90946.855589576706</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>56394.888133058987</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>91425.12166641005</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>56402.057450002241</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>99997.824559685192</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>56790.155456755863</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>98850.750581330707</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>56725.806911906388</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>99425.7391253307</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>56727.889863555225</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>99717.04617066402</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>56728.971205968053</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>97610.987299600543</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>56575.582372361889</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>97626.244446267199</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>56587.137893988707</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>98030.183609600528</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>56588.42795262146</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>98498.32868050001</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>56598.338609842307</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>98452.151793357159</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>56592.472082440057</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>87890.979839280422</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>56362.009176242027</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>93741.815797619056</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>56436.921987636197</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>93649.119557619051</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>56431.191445540877</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>93642.681784904766</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>56427.044939782521</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>93713.711845119047</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>56434.224087671602</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>93773.123355275136</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>56438.67129257504</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>91851.369198370361</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>56424.522967378172</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>91427.539982740738</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>56407.907036403623</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>91893.303235862448</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>56424.536548064731</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>91112.551069600537</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>56399.417899049826</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>92132.124214288357</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>56426.940400998283</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>91957.964019621708</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>56426.616739773941</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>91066.839940743404</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>56398.319250350287</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>91303.281404743393</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>56401.178777766901</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>91771.082094478843</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>56414.483331011776</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>90359.914659034388</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>56389.238445070114</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>88873.8333123677</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>56376.372227484128</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>89874.894512367726</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>56383.232990239383</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>90056.855307701058</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>56388.712592745149</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>90013.61847103438</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>56387.430225083444</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>88938.96200892856</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>56379.450841722515</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>89737.254525182536</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>56382.331902902362</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>88402.042520404764</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>56373.081656102237</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>88407.592715404753</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>56375.931260193749</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>89816.165521182542</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>56383.157793643208</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>94509.795317375669</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>56448.935855626696</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>94587.955622328038</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>56450.689188625227</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>94999.180076619043</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>56459.962207324184</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>94875.727561190462</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>56457.959938672793</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>96262.855956312167</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>56508.998162035154</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>96354.46917333598</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>56515.464434702255</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>96511.393796669319</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>56529.583204661671</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>96459.621551335964</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>56521.71389878491</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>96374.590863335965</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>56517.966477555623</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>95569.209842867713</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>56463.301227367527</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>94706.175688497373</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>56452.85772653154</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>96073.727217367719</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>56485.486776422724</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>95820.230529867724</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>56472.067264159603</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>95918.735807126985</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>56475.223433785548</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>95984.236740460314</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>56483.684175678463</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>96084.789365534394</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>56499.593835767155</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>88008.888449923281</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>56368.976248008643</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>88174.395059923278</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>56372.05229994926</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>85626.89168350531</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>56360.575591785542</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>85615.964963505307</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>56354.078101610139</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>85610.196083505303</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>56352.767192787993</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>86218.691522346577</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>56361.942149375827</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>99779.657135923277</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>56784.445912594994</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>82090.350158828034</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>56339.572174367211</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>82184.499266828061</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>56345.673686860515</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>82443.551966375671</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>56346.98822571661</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>82617.892591050258</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>56349.773834194151</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>94456.546661613756</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>56446.704953772911</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>94444.967933613749</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>56442.289470307078</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>94344.339631391544</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>56439.541436343789</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>96188.913034978847</v>
       </c>
@@ -3175,9 +3175,9 @@
       <selection sqref="A1:B106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>113336.9402026508</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>62415.549156138186</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>113470.87416510581</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>62450.490509826588</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>113445.74184199475</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>62435.335025258646</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>113436.03347970902</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>62425.293688458602</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>113264.85099755028</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>62412.015419739015</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>113241.93704783598</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>62405.504269267774</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>113448.90354510582</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>62447.88993664959</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>113446.44453028045</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>62440.688590922255</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>113111.13313539154</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>62397.289402759074</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>113159.40067405823</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>62402.094156972686</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>113224.80599539155</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>62403.767228383404</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>113616.17974510579</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>62459.804843445934</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>97976.758981952386</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>62043.074016160732</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>99002.437280428567</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>62054.236770751559</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>98418.823667037024</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>62049.447406540188</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>98239.788962674604</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>62046.364392125404</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>97924.219585341285</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>62037.534963613245</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>98310.72778170371</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>62047.980525129336</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>98524.049692370361</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>62052.757274427415</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>100713.12942968782</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>62095.848210918877</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>100432.47993257674</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>62088.161168921855</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>100582.21510935451</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>62092.308900309858</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>100456.64657391005</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>62090.905700591698</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>95930.779672724893</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>62036.007927088307</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>95912.697292724901</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>62034.471292155504</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>95562.419804724894</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>62033.973219627282</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>95439.107281391538</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>62031.890760124523</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>96068.259077878305</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>62037.045846525871</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>95189.604406449726</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>62027.02677973605</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>94322.110191653454</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>62012.730707665825</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>94692.584737288358</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>62014.032541585992</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>104845.06963964022</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>62147.111855282863</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>94196.754077002654</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>62005.11369298285</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>94388.703881415364</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>62014.020986747135</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>94259.660879701085</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>62010.419947373419</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>94961.32612916932</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>62017.366178504788</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>106669.93233262171</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>62179.572127425672</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>106676.66690662171</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>62185.975061809717</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>106684.47719395501</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>62186.476137732534</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>106343.02554753706</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>62167.075389029233</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>106324.0955665847</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>62164.069092405778</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>106353.31308429896</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>62167.421086890812</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>106062.90923058467</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>62163.745201210033</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>106407.38240658467</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>62168.588282484932</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>106556.24871601324</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>62175.296226658931</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>105339.12326422753</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>62156.5577286759</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>104228.95513784658</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>62136.235531031802</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>104336.06617651322</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>62139.545398919028</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>104472.32982984657</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>62146.019830764119</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>106898.41767655821</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>62192.570832138459</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>106854.14422417726</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>62186.764175174445</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>106936.90760189155</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>62195.95231453138</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>106968.02046314023</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>62196.82394470174</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>106903.23222817726</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>62194.67464606923</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>105261.1491711323</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>62154.172058848351</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>105191.56508220638</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>62149.391846756611</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>105881.21289527515</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>62158.578460300734</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>102366.49839401059</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>62101.332470607813</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>103773.71867826454</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>62121.269085687629</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>103807.38261255025</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>62122.721161049099</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>103868.88395521694</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>62125.814272385665</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>103516.0257893016</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>62120.94277751528</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>102932.80898261374</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>62110.7605256026</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>102962.35872483597</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>62114.03761706865</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>102822.6605707725</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>62109.529265765101</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>102432.26947845503</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>62101.960224042487</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>101946.07299845504</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>62096.71301887148</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>103486.79485840212</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>62115.776911101304</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>102590.09107476454</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>62103.918348518717</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>102623.75500905025</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>62105.370423880187</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>111949.80613707937</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>62364.758327996446</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>111899.49595422222</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>62360.706109932449</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>111862.11339688888</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>62357.667782220247</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>112462.86177593649</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>62372.940427922113</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>112232.7251220794</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>62370.107494256612</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>112140.74751541272</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>62364.999376523796</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>99884.235799690461</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>62071.74797788381</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>99616.73508665344</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>62064.276467748867</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>100084.89963070903</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>62086.814932149435</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>99396.994838653452</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>62061.643452951619</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>99297.588318082024</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>62059.449557073705</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>99763.211730526455</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>62067.198754097175</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>100031.64185843122</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>62081.898030119642</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>110717.30283931749</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>62274.386678565657</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>110669.53394731751</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>62272.80962651025</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>109176.15167883332</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>62229.120820479438</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>109096.44927883332</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>62223.703458431468</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>109677.35457549999</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>62240.903030216432</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>109516.48229043653</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>62235.569053676663</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>111385.61586311641</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>62326.931455444821</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>111349.64869708467</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>62319.703781905497</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>110817.8830083651</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>62287.276600247678</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>110740.18871388889</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>62285.160648312558</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>110246.59538247353</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>62266.154543648132</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>110190.50244164815</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>62260.512186792257</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>110484.06047130688</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>62268.842657751622</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>107424.03334699468</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>62207.01009589262</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>108140.06736479627</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>62209.214355290518</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>108201.56533183331</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>62215.365202510162</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>108144.71232146294</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>62210.783245894039</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>107757.69994318514</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>62209.030827517454</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>108203.16298553701</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>62222.599402763815</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>109848.50644872226</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>62245.555270578974</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>109930.00769761114</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>62247.536468545732</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>109980.93192761113</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>62251.001896503571</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>110020.43900132543</v>
       </c>
@@ -4039,9 +4039,9 @@
       <selection sqref="A1:B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>109826.34008454764</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>69063.286318778235</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>110037.54621099206</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>69077.751423215726</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>109991.61377921431</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>69070.921144711916</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>109898.33882454765</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>69069.407481551068</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>109907.45199965875</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>69070.085019158723</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>109996.66370031748</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>69077.551034656091</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>110307.53644385713</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>69084.855421790184</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>106084.13008959523</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>69036.123216157546</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>107535.98465349473</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>69048.120511604415</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>109025.46878806612</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>69061.915389793692</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>108873.11679048941</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>69058.352371088302</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>108453.84082248942</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>69048.545966804813</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>108714.18007626719</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>69057.205766338244</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>108758.67292826719</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>69058.082951928343</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>107511.24239484657</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>69046.526606641011</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>108546.01001360844</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>69056.772794908029</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>106592.67944966139</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>69036.380113378284</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>106701.9038126614</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>69038.386720289884</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>107408.86483766137</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>69039.493492089037</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>99994.245459867714</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>68923.126042498086</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>100603.64605935979</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>68927.622512653921</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>100704.09435888359</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>68931.733799064052</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>99907.071568650776</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>68918.676951966365</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>99857.093524841257</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>68915.65359919655</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>100232.93495147619</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>68924.223228923569</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>113210.60585460055</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>69208.097216325754</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>111458.48723837301</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>69114.437362375713</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>111867.89069770635</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>69136.929455641002</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>111805.40769792856</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>69130.421513606532</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>111750.09361392859</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>69117.413056065096</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>111618.909320373</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>69115.928381830628</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>110716.45554213758</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>69098.445963311766</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>110705.7308738413</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>69094.801346596971</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>110643.46719680427</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>69087.868553408858</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>111415.95624265079</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>69106.35234366545</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>111461.67979287301</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>69115.364537761357</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>113415.68628813229</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>69229.87510572579</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>113497.91154712431</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>69258.884046528416</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>113523.2670899815</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>69270.44485118067</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>113333.63571575133</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>69226.875591349584</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>112897.77257687037</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>69184.225874284617</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>112355.75933306085</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>69147.821559682139</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>112375.09524915609</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>69148.30241784711</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>112593.96381948941</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>69150.694703586647</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>112239.95557883862</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>69137.612054546291</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>112820.9880878148</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>69164.891083854192</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>113115.07312787038</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>69184.419940943422</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>102967.37386137831</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>68965.240621354926</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>104265.04846848943</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>68987.968124313818</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>104117.29814319577</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>68977.012076594299</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>102041.45570406878</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>68948.191475275235</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>102392.31219524339</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>68951.942052794169</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>102640.31802591798</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>68956.722418772464</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>102919.27111184657</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>68958.692055529827</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>102615.15919819576</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>68955.998313839606</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>101770.2479395291</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>68945.882069245068</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>105951.63287998148</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>68989.843472422202</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>101568.82767283598</v>
       </c>
@@ -4519,9 +4519,9 @@
       <selection sqref="A1:B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>95028.056023037032</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>75561.696768306123</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>94203.871492338629</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>75554.650949376344</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>94283.426192338608</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>75557.955052256992</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>94799.681918941817</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>75561.446555030299</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>95050.525598830704</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>75568.197935024262</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>95033.849170259258</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>75562.820214772626</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>94584.918277481484</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>75560.414252166811</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>110866.49591600795</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>75852.297987486789</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>111055.78102978571</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>75864.375248279306</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>110761.34703578573</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>75845.363229052076</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>110831.98522978573</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>75852.169107590191</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>110876.32453178571</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>75855.862446570973</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>112169.41026563756</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>75920.918733406972</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>112408.07131652645</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>75923.134047844054</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>112419.37831430422</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>75928.139572656946</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>111417.43474163755</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>75899.14228955601</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>111910.48615230423</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>75903.150170312845</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>111536.64027763755</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>75901.628213988166</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>111978.89910163757</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>75915.675607719342</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>112678.3443847328</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>75937.685259727339</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>112478.73957697088</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>75932.679363906136</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>112715.17789163756</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>75944.181766792011</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>112815.15731663757</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>75944.63526256381</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>111332.51915536773</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>75892.588233740433</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>111301.92436536771</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>75885.504576131469</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>109292.2114437196</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>75780.83950380396</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>109037.57541705293</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>75779.918343572237</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>109688.97331973547</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>75784.265529775454</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>108471.06334316402</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>75774.16882224851</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>108841.03716094179</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>75779.240438822904</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>108491.70302360842</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>75774.937900286721</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>108384.68241560846</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>75762.770425013092</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>109950.62639931218</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>75788.688100601881</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>110274.45726597884</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>75790.707038373948</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>110317.71181597885</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>75817.500271246885</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>110365.24377931218</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>75821.928665746556</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>94496.26097925927</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>75559.347493218462</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>107025.8106735397</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>75750.266994698366</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>107402.43883520635</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>75761.963720538901</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>106191.11369760582</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>75747.991584702671</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>106048.34533760582</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>75738.415724794235</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>102301.56035735446</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>75642.43576763937</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>102674.26958650793</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>75644.508602713642</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>101971.45158025927</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>75626.329158662644</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>101698.15206025925</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>75619.026544088367</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>104273.71043549734</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>75659.127540357498</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>104771.44979344975</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>75693.071243158774</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>103767.5682393545</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>75657.164575522824</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>104670.44945278308</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>75682.979588609713</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>104478.48545278308</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>75678.408536132323</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>104724.84456167194</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>75685.362294675579</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>104791.71196167196</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>75694.489251300038</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>104827.97640967196</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>75694.972547526486</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>104363.4079510053</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>75675.107680736211</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>104554.09281949735</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>75678.981029225222</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>104314.09965797355</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>75660.688306209995</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>98562.482344259246</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>75584.36326994744</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>98162.657830259239</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>75571.390252277444</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>98369.614040037035</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>75580.220595330349</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>98261.563056925923</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>75577.629243455594</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>98928.002769179875</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>75588.144398982229</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>98965.248398068754</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>75590.590609605541</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>99056.236973402119</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>75592.973315671406</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>99047.234590735447</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>75592.310513885968</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>100012.13257310053</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>75602.173848878738</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>99607.995584100514</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>75597.061995613418</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>99789.745712100528</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>75598.528608899462</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>99552.48600410053</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>75596.85704570949</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>99193.014130100521</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>75594.960326325643</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>99212.986138100532</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>75596.356494084233</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>100168.95428407672</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>75608.012644748116</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>101626.31914579099</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>75618.614197650531</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>101257.16359575925</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>75610.49555278731</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>105516.83679655558</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>75730.451687900684</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>105238.70416647618</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>75705.085559876548</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>105273.65878647615</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>75707.171936587445</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>105140.49451847616</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>75703.968841817114</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>105278.72542047617</v>
       </c>
@@ -5159,9 +5159,9 @@
       <selection sqref="A1:B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>113510.73348067989</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>82508.742909896158</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>113560.79379979099</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>82508.852626533873</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>114113.73580145765</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>82512.16434348865</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>113365.56879645766</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>82496.733034763849</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>113466.96337645767</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>82503.105006884565</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>113470.15681293384</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>82504.701604344635</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>114014.719411791</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>82511.140541999528</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>112802.71043892327</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>82494.548593941887</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>112640.192183209</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>82487.337306600049</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>115673.44616989684</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>82528.488264802843</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>110708.93417063491</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>82458.729373658192</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>116653.92842026193</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>82530.869170407474</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>116835.88530383335</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>82551.145678874338</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>116689.68141238891</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>82550.529143964202</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>116990.42987481748</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>82557.438694552169</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>117159.72047481746</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>82567.376166092392</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>114734.96021895239</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>82512.696846374456</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>114915.61579533335</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>82521.238892999885</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>115316.83326876193</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>82523.791408111065</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>111327.73417006349</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>82462.967026183411</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>111022.18675377779</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>82459.559904618334</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>111033.38859474073</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>82461.938464132589</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>111914.84179684128</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>82479.923899111542</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>111472.32633717459</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>82473.730681448636</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>111757.41776984127</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>82475.649228931303</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>111936.55374098413</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>82481.253250506954</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>111398.3485131746</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>82473.222070031858</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>111712.64335717459</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>82475.410492779367</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>111608.5029571746</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>82475.194449230228</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>111507.94018788889</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>82474.532258292427</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>119101.8218086878</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>82628.156910579972</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>119104.14931268783</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>82629.238603272228</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>118922.4332326508</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>82624.895342236108</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>119175.3273316508</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>82634.277269419748</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>119526.137688873</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>82649.017942953797</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>119496.11272887301</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>82635.448574875089</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>119637.81489607936</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>82666.455811232896</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>119600.53218330158</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>82654.758263982047</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>119622.46647053967</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>82655.922463086521</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>117500.70914590475</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>82571.722148716362</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>118599.08129957142</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>82586.218799314898</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>121684.08953030953</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>82770.3471018251</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>121858.96388615077</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>82787.855219036312</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>122375.44777494181</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>82794.91318174421</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>122386.02140694181</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>82796.996114671929</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>122983.28427310055</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>82829.981357666329</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>122940.60970376722</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>82818.984970978097</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>123063.17961710054</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>82831.394136878283</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>123185.77332910053</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>82836.975102484575</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>123180.09764910053</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>82836.951166976985</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>123294.25194998943</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>82857.464512865423</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>122959.58398694181</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>82826.535136680381</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>123300.70916598944</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>82859.946660434318</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>123287.7735906561</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>82856.328015048595</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>123236.69893265612</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>82841.851989567323</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>123444.99584813759</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>82860.614694005199</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>121396.2764029127</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>82762.327368638638</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>124234.96637406881</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>82930.363017722135</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>124054.71566954498</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>82884.676008934432</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>124121.03226211641</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>82888.878907841121</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>124128.66826211642</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>82901.085704047393</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>124194.95800361641</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>82920.901052898713</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>122896.91203271959</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>82799.203006011012</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>121886.87070396029</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>82792.772701124733</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>122968.46984269844</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>82828.447057652636</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>105491.94101956085</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>82441.585743511794</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>105942.4739234656</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>82444.926429156156</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>107258.73964163491</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>82448.394834534207</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>107002.59443274603</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>82445.708598847152</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>107452.8535856349</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>82455.258923372399</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>105587.33393723809</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>82442.128769221308</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>104427.48919941801</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>82409.899286065454</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>104255.97524919576</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>82404.71400581568</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>104745.70775731218</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>82433.61425633583</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>121192.70378266668</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>82746.796907487282</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>121021.55042780953</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>82743.216575239756</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>120121.16505257142</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>82694.29110497178</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>120781.67977765079</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>82726.498911311603</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>120770.09042365079</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>82712.293908491178</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>120997.85760242063</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>82730.051292326796</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>120777.9837076508</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>82724.932514938191</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>120535.84549974601</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>82708.745024854157</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>120445.42973942857</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>82698.484545468586</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>120480.16841720635</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>82702.152471262656</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>120487.11161142857</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>82702.304904658566</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>120460.8582087619</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>82698.847915861392</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>119843.99827856349</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>82692.766091166268</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>120203.97711784922</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>82694.575476927101</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>119705.2741574524</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>82680.71921713966</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>119822.68287345237</v>
       </c>
@@ -5895,9 +5895,9 @@
       <selection sqref="A1:B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>119550.74056109792</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>89535.601280710878</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>119557.30818243121</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>89539.607613659347</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>119521.13459643122</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>89532.538281717207</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>119557.32223043124</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>89539.739690523042</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>119001.54918087566</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>89525.1732870009</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>119561.98146709792</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>89542.107538163968</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>120592.39603322488</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>89555.443717397968</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>120314.15238152645</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>89552.398174141301</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>120314.13702152646</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>89544.543162399728</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>120649.5862507487</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>89556.105365950047</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>120725.24184008203</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>89556.647902456447</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>120759.30504919314</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>89566.384981031602</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>121138.32506019314</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>89590.820018228667</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>120857.67846082806</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>89586.23264283422</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>120934.76729282807</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>89587.692193653245</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>120817.64267568517</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>89572.591020853841</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>122640.79841033068</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>89689.007979942879</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>122871.0348613307</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>89718.840387299904</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>122978.31913333067</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>89724.574642688443</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>122891.01492755291</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>89723.056285313767</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>123043.16692755291</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>89731.092125605879</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>123140.66746690212</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>89743.520450022697</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>122555.73624480425</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>89674.327645831858</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>122748.52008194708</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>89699.010282755495</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>122728.7601657566</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>89693.448722554123</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>122588.75770242327</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>89687.733078636913</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>122820.08424537566</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>89699.988899172982</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>122082.44254946297</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>89656.699177303875</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>121678.32958098676</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>89647.483397892895</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>121590.29976098677</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>89646.566745211909</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>121437.87830691269</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>89641.073213193304</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>121820.41671612964</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>89648.105371399579</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>121871.58890679631</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>89652.416843343512</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>121172.85942462699</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>89635.474977965569</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>122395.70031502648</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>89666.437207953233</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>122395.65116302649</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>89658.20173866667</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>118935.53233423017</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>89462.335339933314</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>118559.76313384126</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>89441.727503402464</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>118579.13195473014</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>89446.233113471491</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>118542.62007885716</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>89428.283031779996</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>118283.53810495237</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>89426.686590606507</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>118722.14111823017</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>89450.33929863626</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>116387.70303620107</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>89370.353825323182</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>116452.4708964233</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>89385.914421735317</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>116426.74203086772</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>89378.000177186608</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>117108.28776027779</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>89397.852721162242</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>116717.58721983334</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>89393.433403272589</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>117029.1871030397</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>89394.887841846095</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>117249.51696261112</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>89398.924264469795</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>117239.94734127777</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>89398.399829281057</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>117438.0390085</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>89399.505390195569</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>115674.8466896984</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>89367.736528956011</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>117737.21797600001</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>89417.428171327963</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>114756.84415208468</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>89350.557396918099</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>115058.14708808468</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>89359.828675927376</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>114178.85868052911</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>89349.909688627667</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>115168.79105379895</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>89360.249640268114</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>114933.25640408465</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>89359.658699113934</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>114815.30146071957</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>89356.476991567761</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>111540.18684488098</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>89302.039557233758</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>111846.13218421431</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>89305.117994541317</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>109178.97966907143</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>89268.375346528934</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>108399.20467940476</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>89260.527634602593</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>108502.66165540475</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>89262.281494103532</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>110044.26094218253</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>89275.790389974762</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>109841.71958918254</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>89272.276576622011</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>113399.58386906616</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>89324.401073209738</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>113215.37381811376</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>89324.102591193936</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>111948.71166789153</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>89310.505030177854</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>112676.00888617727</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>89321.491288888632</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>112327.89379589153</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>89314.700090526851</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>112931.25135944708</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>89323.907578471073</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>112206.62149589154</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>89312.666624633261</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>112515.53560973279</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>89317.98710261767</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>112494.75904973279</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>89316.881020509099</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>113630.93740426456</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>89340.520710497629</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>113426.37781726455</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>89339.907914734358</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>113721.87430026455</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>89347.674609350826</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>110433.0618052381</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>89277.567608959667</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>111264.99024307144</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>89300.492054011542</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>110984.93014828571</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>89286.585889578419</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>111145.13519640475</v>
       </c>
@@ -6567,9 +6567,9 @@
       <selection sqref="A1:B108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>145087.24146631217</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>96623.581047479951</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>145010.19094316932</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>96619.838519342054</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>145013.85454916931</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>96621.946494906049</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>145460.82558531215</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>96651.258344045447</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>145354.66112131215</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>96637.253354948843</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>145656.79835896296</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>96651.300938947374</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>145668.55827324869</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>96657.585606810739</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>145719.63458797886</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>96672.555890585136</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>145142.98628731217</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>96626.286661915379</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>143606.88598176456</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>96546.276713915911</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>143867.04650703442</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>96553.108218841706</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>144427.31885855822</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>96563.235374907483</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>144361.89843855822</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>96555.51662423629</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>143675.04655455821</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>96549.850350316774</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>143281.97360941535</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>96541.988032239969</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>143683.23494541534</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>96552.103138865335</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>144341.49030998681</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>96555.476355062347</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>142977.63920632805</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>96540.95734092257</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>142705.91092432808</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>96535.462680893586</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>142871.80477999468</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>96536.048516692579</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>142438.75846793654</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>96519.495847221275</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>144941.84137495502</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>96595.490941704935</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>144907.56183590743</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>96588.371874328193</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>144814.18688446295</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>96583.667812232263</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>144481.57190846297</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>96573.044712456802</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>144695.90496403442</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>96577.199607613744</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>144753.07850046299</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>96579.561232249966</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>142624.99634766139</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>96531.732100194626</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>142611.50499366139</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>96526.45903137904</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>146429.33659194707</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>96762.146804510281</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>146691.03820223277</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>96762.589055970544</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>146359.16089994708</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>96758.357012727123</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>146519.18200794709</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>96762.375953470822</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>146070.34739083599</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>96745.414745787333</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>146135.08345096296</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>96756.331747529824</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>146126.46699839152</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>96750.262345794763</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>147425.48276818517</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>96796.312367358274</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>146864.92555151854</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>96776.843441330071</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>147251.61785218521</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>96784.076320293563</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>147363.23183618521</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>96788.544564112584</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>147230.51545018522</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>96777.96486231676</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>147280.78588228044</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>96787.095581330592</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>132431.5850768942</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>96253.615275643489</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>130713.82907160847</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>96223.777479733253</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>130706.71415503704</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>96222.139808096865</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>132558.2702029894</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>96261.145591873516</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>131279.05301899207</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>96229.485029015748</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>131483.30809014023</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>96234.568174819913</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>131505.87913814021</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>96235.279525500795</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>129020.09857060056</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>96188.798287202459</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>128751.12071574341</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>96186.722125380795</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>129322.97110083862</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>96189.580233092754</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>129760.54452683864</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>96213.569430420932</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>129727.84667083865</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>96195.366901292306</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>128714.51027924074</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>96174.674145916724</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>129607.56394872753</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>96193.469050023778</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>131891.61983454763</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>96251.983633727796</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>131652.3540430291</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>96247.279543857439</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>131673.84497191798</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>96248.571866913233</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>125867.43652766665</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>96166.823559416749</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>125882.49108211111</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>96170.565140599894</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>125628.96848925397</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>96166.671078448766</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>125019.61440209525</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>96159.237226138241</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>133333.23399800266</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>96266.915995662435</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>134645.9326766376</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>96284.847960046405</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>134527.13407752645</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>96275.431050302548</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>134721.87834356082</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>96295.730005882695</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>133548.66907294182</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>96267.121684591228</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>134915.71886956086</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>96299.583660675518</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>135571.24103425397</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>96320.471029243738</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>135034.47746684655</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>96317.315357355474</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>135014.22034862434</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>96315.940603921073</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>135290.86861359261</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>96319.467024768324</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>134956.59063878309</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>96311.755496368089</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>135377.98134010055</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>96320.323939225578</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>135279.95043991006</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>96318.245872688072</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>138174.9130051455</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>96369.27396859735</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>138257.85501181215</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>96374.855083732982</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>139119.25379185981</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>96376.808263127881</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>139127.30795185978</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>96381.730475953722</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>139284.71626108201</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>96391.882211595366</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>139169.65233952648</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>96387.807057370301</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>139161.98475285977</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>96385.55770286957</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>136235.37585343124</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>96334.279918453307</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>136025.2164842037</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>96323.092409825054</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>136751.49465488092</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>96342.677629048238</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>136826.94163602381</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>96344.036799262482</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>136869.5311471349</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>96349.810902874015</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>137909.16095316666</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>96361.52307579272</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>137992.74040002379</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>96366.477625786254</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>137869.43629602381</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>96360.682849602657</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>136996.26240002378</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>96352.665833981635</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>137839.29813602378</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>96354.558382331423</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>141626.34473844711</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>96480.499657323409</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>141321.49506044714</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>96476.255116890257</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>141544.68402587567</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>96478.416904926533</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>142013.47439658997</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>96485.753140910718</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>142044.79144183072</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>96489.808851257549</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>142208.67444482012</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>96501.83214552245</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>142296.16212482011</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>96511.584355319457</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>141679.19071165344</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>96483.173766983746</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>141175.02264109257</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>96426.152835966088</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>140430.38445238362</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>96415.786357380712</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>140797.41873905028</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>96418.358169035404</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>140985.09451860582</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>96423.472461129786</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>140370.34935982805</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>96406.354997365182</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>139895.19805516137</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>96397.903734796026</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>145767.84902424074</v>
       </c>
